--- a/recommended-pivottable-demo-solutions.xlsx
+++ b/recommended-pivottable-demo-solutions.xlsx
@@ -1,26 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26717"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26721"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9EF9B86-485D-4159-A92E-FE4690D137E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40DA8ADF-DDD5-4206-991C-E9961872FC27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mpg" sheetId="1" r:id="rId1"/>
+    <sheet name="Recommendation1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
+  <pivotCaches>
+    <pivotCache cacheId="0" r:id="rId3"/>
+  </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="15">
   <si>
     <t>mpg</t>
   </si>
@@ -54,11 +58,23 @@
   <si>
     <t>europe</t>
   </si>
+  <si>
+    <t>Average of weight</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Average of mpg</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="16"/>
@@ -536,8 +552,16 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -594,6 +618,4156 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="George Mount" refreshedDate="45136.850240277781" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="398" xr:uid="{27D8A07E-C244-4695-ACD9-D01294455B82}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:H399" sheet="mpg"/>
+  </cacheSource>
+  <cacheFields count="8">
+    <cacheField name="mpg" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="9" maxValue="46.6"/>
+    </cacheField>
+    <cacheField name="cylinders" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3" maxValue="8" count="5">
+        <n v="8"/>
+        <n v="4"/>
+        <n v="6"/>
+        <n v="3"/>
+        <n v="5"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="displacement" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="68" maxValue="455"/>
+    </cacheField>
+    <cacheField name="horsepower" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="46" maxValue="230"/>
+    </cacheField>
+    <cacheField name="weight" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1613" maxValue="5140"/>
+    </cacheField>
+    <cacheField name="acceleration" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="8" maxValue="24.8"/>
+    </cacheField>
+    <cacheField name="model_year" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="70" maxValue="82"/>
+    </cacheField>
+    <cacheField name="origin" numFmtId="0">
+      <sharedItems count="3">
+        <s v="usa"/>
+        <s v="japan"/>
+        <s v="europe"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="398">
+  <r>
+    <n v="18"/>
+    <x v="0"/>
+    <n v="307"/>
+    <n v="130"/>
+    <n v="3504"/>
+    <n v="12"/>
+    <n v="70"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="15"/>
+    <x v="0"/>
+    <n v="350"/>
+    <n v="165"/>
+    <n v="3693"/>
+    <n v="11.5"/>
+    <n v="70"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="18"/>
+    <x v="0"/>
+    <n v="318"/>
+    <n v="150"/>
+    <n v="3436"/>
+    <n v="11"/>
+    <n v="70"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="16"/>
+    <x v="0"/>
+    <n v="304"/>
+    <n v="150"/>
+    <n v="3433"/>
+    <n v="12"/>
+    <n v="70"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="17"/>
+    <x v="0"/>
+    <n v="302"/>
+    <n v="140"/>
+    <n v="3449"/>
+    <n v="10.5"/>
+    <n v="70"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="15"/>
+    <x v="0"/>
+    <n v="429"/>
+    <n v="198"/>
+    <n v="4341"/>
+    <n v="10"/>
+    <n v="70"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <x v="0"/>
+    <n v="454"/>
+    <n v="220"/>
+    <n v="4354"/>
+    <n v="9"/>
+    <n v="70"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <x v="0"/>
+    <n v="440"/>
+    <n v="215"/>
+    <n v="4312"/>
+    <n v="8.5"/>
+    <n v="70"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <x v="0"/>
+    <n v="455"/>
+    <n v="225"/>
+    <n v="4425"/>
+    <n v="10"/>
+    <n v="70"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="15"/>
+    <x v="0"/>
+    <n v="390"/>
+    <n v="190"/>
+    <n v="3850"/>
+    <n v="8.5"/>
+    <n v="70"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="15"/>
+    <x v="0"/>
+    <n v="383"/>
+    <n v="170"/>
+    <n v="3563"/>
+    <n v="10"/>
+    <n v="70"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <x v="0"/>
+    <n v="340"/>
+    <n v="160"/>
+    <n v="3609"/>
+    <n v="8"/>
+    <n v="70"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="15"/>
+    <x v="0"/>
+    <n v="400"/>
+    <n v="150"/>
+    <n v="3761"/>
+    <n v="9.5"/>
+    <n v="70"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <x v="0"/>
+    <n v="455"/>
+    <n v="225"/>
+    <n v="3086"/>
+    <n v="10"/>
+    <n v="70"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="24"/>
+    <x v="1"/>
+    <n v="113"/>
+    <n v="95"/>
+    <n v="2372"/>
+    <n v="15"/>
+    <n v="70"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="22"/>
+    <x v="2"/>
+    <n v="198"/>
+    <n v="95"/>
+    <n v="2833"/>
+    <n v="15.5"/>
+    <n v="70"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="18"/>
+    <x v="2"/>
+    <n v="199"/>
+    <n v="97"/>
+    <n v="2774"/>
+    <n v="15.5"/>
+    <n v="70"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="21"/>
+    <x v="2"/>
+    <n v="200"/>
+    <n v="85"/>
+    <n v="2587"/>
+    <n v="16"/>
+    <n v="70"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="27"/>
+    <x v="1"/>
+    <n v="97"/>
+    <n v="88"/>
+    <n v="2130"/>
+    <n v="14.5"/>
+    <n v="70"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="26"/>
+    <x v="1"/>
+    <n v="97"/>
+    <n v="46"/>
+    <n v="1835"/>
+    <n v="20.5"/>
+    <n v="70"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="25"/>
+    <x v="1"/>
+    <n v="110"/>
+    <n v="87"/>
+    <n v="2672"/>
+    <n v="17.5"/>
+    <n v="70"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="24"/>
+    <x v="1"/>
+    <n v="107"/>
+    <n v="90"/>
+    <n v="2430"/>
+    <n v="14.5"/>
+    <n v="70"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="25"/>
+    <x v="1"/>
+    <n v="104"/>
+    <n v="95"/>
+    <n v="2375"/>
+    <n v="17.5"/>
+    <n v="70"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="26"/>
+    <x v="1"/>
+    <n v="121"/>
+    <n v="113"/>
+    <n v="2234"/>
+    <n v="12.5"/>
+    <n v="70"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="21"/>
+    <x v="2"/>
+    <n v="199"/>
+    <n v="90"/>
+    <n v="2648"/>
+    <n v="15"/>
+    <n v="70"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="10"/>
+    <x v="0"/>
+    <n v="360"/>
+    <n v="215"/>
+    <n v="4615"/>
+    <n v="14"/>
+    <n v="70"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="10"/>
+    <x v="0"/>
+    <n v="307"/>
+    <n v="200"/>
+    <n v="4376"/>
+    <n v="15"/>
+    <n v="70"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="11"/>
+    <x v="0"/>
+    <n v="318"/>
+    <n v="210"/>
+    <n v="4382"/>
+    <n v="13.5"/>
+    <n v="70"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="9"/>
+    <x v="0"/>
+    <n v="304"/>
+    <n v="193"/>
+    <n v="4732"/>
+    <n v="18.5"/>
+    <n v="70"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="27"/>
+    <x v="1"/>
+    <n v="97"/>
+    <n v="88"/>
+    <n v="2130"/>
+    <n v="14.5"/>
+    <n v="71"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="28"/>
+    <x v="1"/>
+    <n v="140"/>
+    <n v="90"/>
+    <n v="2264"/>
+    <n v="15.5"/>
+    <n v="71"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="25"/>
+    <x v="1"/>
+    <n v="113"/>
+    <n v="95"/>
+    <n v="2228"/>
+    <n v="14"/>
+    <n v="71"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="25"/>
+    <x v="1"/>
+    <n v="98"/>
+    <m/>
+    <n v="2046"/>
+    <n v="19"/>
+    <n v="71"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="19"/>
+    <x v="2"/>
+    <n v="232"/>
+    <n v="100"/>
+    <n v="2634"/>
+    <n v="13"/>
+    <n v="71"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="16"/>
+    <x v="2"/>
+    <n v="225"/>
+    <n v="105"/>
+    <n v="3439"/>
+    <n v="15.5"/>
+    <n v="71"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="17"/>
+    <x v="2"/>
+    <n v="250"/>
+    <n v="100"/>
+    <n v="3329"/>
+    <n v="15.5"/>
+    <n v="71"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="19"/>
+    <x v="2"/>
+    <n v="250"/>
+    <n v="88"/>
+    <n v="3302"/>
+    <n v="15.5"/>
+    <n v="71"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="18"/>
+    <x v="2"/>
+    <n v="232"/>
+    <n v="100"/>
+    <n v="3288"/>
+    <n v="15.5"/>
+    <n v="71"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <x v="0"/>
+    <n v="350"/>
+    <n v="165"/>
+    <n v="4209"/>
+    <n v="12"/>
+    <n v="71"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <x v="0"/>
+    <n v="400"/>
+    <n v="175"/>
+    <n v="4464"/>
+    <n v="11.5"/>
+    <n v="71"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <x v="0"/>
+    <n v="351"/>
+    <n v="153"/>
+    <n v="4154"/>
+    <n v="13.5"/>
+    <n v="71"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <x v="0"/>
+    <n v="318"/>
+    <n v="150"/>
+    <n v="4096"/>
+    <n v="13"/>
+    <n v="71"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="12"/>
+    <x v="0"/>
+    <n v="383"/>
+    <n v="180"/>
+    <n v="4955"/>
+    <n v="11.5"/>
+    <n v="71"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="13"/>
+    <x v="0"/>
+    <n v="400"/>
+    <n v="170"/>
+    <n v="4746"/>
+    <n v="12"/>
+    <n v="71"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="13"/>
+    <x v="0"/>
+    <n v="400"/>
+    <n v="175"/>
+    <n v="5140"/>
+    <n v="12"/>
+    <n v="71"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="18"/>
+    <x v="2"/>
+    <n v="258"/>
+    <n v="110"/>
+    <n v="2962"/>
+    <n v="13.5"/>
+    <n v="71"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="22"/>
+    <x v="1"/>
+    <n v="140"/>
+    <n v="72"/>
+    <n v="2408"/>
+    <n v="19"/>
+    <n v="71"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="19"/>
+    <x v="2"/>
+    <n v="250"/>
+    <n v="100"/>
+    <n v="3282"/>
+    <n v="15"/>
+    <n v="71"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="18"/>
+    <x v="2"/>
+    <n v="250"/>
+    <n v="88"/>
+    <n v="3139"/>
+    <n v="14.5"/>
+    <n v="71"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="23"/>
+    <x v="1"/>
+    <n v="122"/>
+    <n v="86"/>
+    <n v="2220"/>
+    <n v="14"/>
+    <n v="71"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="28"/>
+    <x v="1"/>
+    <n v="116"/>
+    <n v="90"/>
+    <n v="2123"/>
+    <n v="14"/>
+    <n v="71"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="30"/>
+    <x v="1"/>
+    <n v="79"/>
+    <n v="70"/>
+    <n v="2074"/>
+    <n v="19.5"/>
+    <n v="71"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="30"/>
+    <x v="1"/>
+    <n v="88"/>
+    <n v="76"/>
+    <n v="2065"/>
+    <n v="14.5"/>
+    <n v="71"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="31"/>
+    <x v="1"/>
+    <n v="71"/>
+    <n v="65"/>
+    <n v="1773"/>
+    <n v="19"/>
+    <n v="71"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="35"/>
+    <x v="1"/>
+    <n v="72"/>
+    <n v="69"/>
+    <n v="1613"/>
+    <n v="18"/>
+    <n v="71"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="27"/>
+    <x v="1"/>
+    <n v="97"/>
+    <n v="60"/>
+    <n v="1834"/>
+    <n v="19"/>
+    <n v="71"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="26"/>
+    <x v="1"/>
+    <n v="91"/>
+    <n v="70"/>
+    <n v="1955"/>
+    <n v="20.5"/>
+    <n v="71"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="24"/>
+    <x v="1"/>
+    <n v="113"/>
+    <n v="95"/>
+    <n v="2278"/>
+    <n v="15.5"/>
+    <n v="72"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="25"/>
+    <x v="1"/>
+    <n v="97.5"/>
+    <n v="80"/>
+    <n v="2126"/>
+    <n v="17"/>
+    <n v="72"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="23"/>
+    <x v="1"/>
+    <n v="97"/>
+    <n v="54"/>
+    <n v="2254"/>
+    <n v="23.5"/>
+    <n v="72"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="20"/>
+    <x v="1"/>
+    <n v="140"/>
+    <n v="90"/>
+    <n v="2408"/>
+    <n v="19.5"/>
+    <n v="72"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="21"/>
+    <x v="1"/>
+    <n v="122"/>
+    <n v="86"/>
+    <n v="2226"/>
+    <n v="16.5"/>
+    <n v="72"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="13"/>
+    <x v="0"/>
+    <n v="350"/>
+    <n v="165"/>
+    <n v="4274"/>
+    <n v="12"/>
+    <n v="72"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <x v="0"/>
+    <n v="400"/>
+    <n v="175"/>
+    <n v="4385"/>
+    <n v="12"/>
+    <n v="72"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="15"/>
+    <x v="0"/>
+    <n v="318"/>
+    <n v="150"/>
+    <n v="4135"/>
+    <n v="13.5"/>
+    <n v="72"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <x v="0"/>
+    <n v="351"/>
+    <n v="153"/>
+    <n v="4129"/>
+    <n v="13"/>
+    <n v="72"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="17"/>
+    <x v="0"/>
+    <n v="304"/>
+    <n v="150"/>
+    <n v="3672"/>
+    <n v="11.5"/>
+    <n v="72"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="11"/>
+    <x v="0"/>
+    <n v="429"/>
+    <n v="208"/>
+    <n v="4633"/>
+    <n v="11"/>
+    <n v="72"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="13"/>
+    <x v="0"/>
+    <n v="350"/>
+    <n v="155"/>
+    <n v="4502"/>
+    <n v="13.5"/>
+    <n v="72"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="12"/>
+    <x v="0"/>
+    <n v="350"/>
+    <n v="160"/>
+    <n v="4456"/>
+    <n v="13.5"/>
+    <n v="72"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="13"/>
+    <x v="0"/>
+    <n v="400"/>
+    <n v="190"/>
+    <n v="4422"/>
+    <n v="12.5"/>
+    <n v="72"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="19"/>
+    <x v="3"/>
+    <n v="70"/>
+    <n v="97"/>
+    <n v="2330"/>
+    <n v="13.5"/>
+    <n v="72"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="15"/>
+    <x v="0"/>
+    <n v="304"/>
+    <n v="150"/>
+    <n v="3892"/>
+    <n v="12.5"/>
+    <n v="72"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="13"/>
+    <x v="0"/>
+    <n v="307"/>
+    <n v="130"/>
+    <n v="4098"/>
+    <n v="14"/>
+    <n v="72"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="13"/>
+    <x v="0"/>
+    <n v="302"/>
+    <n v="140"/>
+    <n v="4294"/>
+    <n v="16"/>
+    <n v="72"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <x v="0"/>
+    <n v="318"/>
+    <n v="150"/>
+    <n v="4077"/>
+    <n v="14"/>
+    <n v="72"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="18"/>
+    <x v="1"/>
+    <n v="121"/>
+    <n v="112"/>
+    <n v="2933"/>
+    <n v="14.5"/>
+    <n v="72"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="22"/>
+    <x v="1"/>
+    <n v="121"/>
+    <n v="76"/>
+    <n v="2511"/>
+    <n v="18"/>
+    <n v="72"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="21"/>
+    <x v="1"/>
+    <n v="120"/>
+    <n v="87"/>
+    <n v="2979"/>
+    <n v="19.5"/>
+    <n v="72"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="26"/>
+    <x v="1"/>
+    <n v="96"/>
+    <n v="69"/>
+    <n v="2189"/>
+    <n v="18"/>
+    <n v="72"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="22"/>
+    <x v="1"/>
+    <n v="122"/>
+    <n v="86"/>
+    <n v="2395"/>
+    <n v="16"/>
+    <n v="72"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="28"/>
+    <x v="1"/>
+    <n v="97"/>
+    <n v="92"/>
+    <n v="2288"/>
+    <n v="17"/>
+    <n v="72"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="23"/>
+    <x v="1"/>
+    <n v="120"/>
+    <n v="97"/>
+    <n v="2506"/>
+    <n v="14.5"/>
+    <n v="72"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="28"/>
+    <x v="1"/>
+    <n v="98"/>
+    <n v="80"/>
+    <n v="2164"/>
+    <n v="15"/>
+    <n v="72"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="27"/>
+    <x v="1"/>
+    <n v="97"/>
+    <n v="88"/>
+    <n v="2100"/>
+    <n v="16.5"/>
+    <n v="72"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="13"/>
+    <x v="0"/>
+    <n v="350"/>
+    <n v="175"/>
+    <n v="4100"/>
+    <n v="13"/>
+    <n v="73"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <x v="0"/>
+    <n v="304"/>
+    <n v="150"/>
+    <n v="3672"/>
+    <n v="11.5"/>
+    <n v="73"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="13"/>
+    <x v="0"/>
+    <n v="350"/>
+    <n v="145"/>
+    <n v="3988"/>
+    <n v="13"/>
+    <n v="73"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <x v="0"/>
+    <n v="302"/>
+    <n v="137"/>
+    <n v="4042"/>
+    <n v="14.5"/>
+    <n v="73"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="15"/>
+    <x v="0"/>
+    <n v="318"/>
+    <n v="150"/>
+    <n v="3777"/>
+    <n v="12.5"/>
+    <n v="73"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="12"/>
+    <x v="0"/>
+    <n v="429"/>
+    <n v="198"/>
+    <n v="4952"/>
+    <n v="11.5"/>
+    <n v="73"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="13"/>
+    <x v="0"/>
+    <n v="400"/>
+    <n v="150"/>
+    <n v="4464"/>
+    <n v="12"/>
+    <n v="73"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="13"/>
+    <x v="0"/>
+    <n v="351"/>
+    <n v="158"/>
+    <n v="4363"/>
+    <n v="13"/>
+    <n v="73"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <x v="0"/>
+    <n v="318"/>
+    <n v="150"/>
+    <n v="4237"/>
+    <n v="14.5"/>
+    <n v="73"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="13"/>
+    <x v="0"/>
+    <n v="440"/>
+    <n v="215"/>
+    <n v="4735"/>
+    <n v="11"/>
+    <n v="73"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="12"/>
+    <x v="0"/>
+    <n v="455"/>
+    <n v="225"/>
+    <n v="4951"/>
+    <n v="11"/>
+    <n v="73"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="13"/>
+    <x v="0"/>
+    <n v="360"/>
+    <n v="175"/>
+    <n v="3821"/>
+    <n v="11"/>
+    <n v="73"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="18"/>
+    <x v="2"/>
+    <n v="225"/>
+    <n v="105"/>
+    <n v="3121"/>
+    <n v="16.5"/>
+    <n v="73"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="16"/>
+    <x v="2"/>
+    <n v="250"/>
+    <n v="100"/>
+    <n v="3278"/>
+    <n v="18"/>
+    <n v="73"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="18"/>
+    <x v="2"/>
+    <n v="232"/>
+    <n v="100"/>
+    <n v="2945"/>
+    <n v="16"/>
+    <n v="73"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="18"/>
+    <x v="2"/>
+    <n v="250"/>
+    <n v="88"/>
+    <n v="3021"/>
+    <n v="16.5"/>
+    <n v="73"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="23"/>
+    <x v="2"/>
+    <n v="198"/>
+    <n v="95"/>
+    <n v="2904"/>
+    <n v="16"/>
+    <n v="73"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="26"/>
+    <x v="1"/>
+    <n v="97"/>
+    <n v="46"/>
+    <n v="1950"/>
+    <n v="21"/>
+    <n v="73"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="11"/>
+    <x v="0"/>
+    <n v="400"/>
+    <n v="150"/>
+    <n v="4997"/>
+    <n v="14"/>
+    <n v="73"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="12"/>
+    <x v="0"/>
+    <n v="400"/>
+    <n v="167"/>
+    <n v="4906"/>
+    <n v="12.5"/>
+    <n v="73"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="13"/>
+    <x v="0"/>
+    <n v="360"/>
+    <n v="170"/>
+    <n v="4654"/>
+    <n v="13"/>
+    <n v="73"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="12"/>
+    <x v="0"/>
+    <n v="350"/>
+    <n v="180"/>
+    <n v="4499"/>
+    <n v="12.5"/>
+    <n v="73"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="18"/>
+    <x v="2"/>
+    <n v="232"/>
+    <n v="100"/>
+    <n v="2789"/>
+    <n v="15"/>
+    <n v="73"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="20"/>
+    <x v="1"/>
+    <n v="97"/>
+    <n v="88"/>
+    <n v="2279"/>
+    <n v="19"/>
+    <n v="73"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="21"/>
+    <x v="1"/>
+    <n v="140"/>
+    <n v="72"/>
+    <n v="2401"/>
+    <n v="19.5"/>
+    <n v="73"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="22"/>
+    <x v="1"/>
+    <n v="108"/>
+    <n v="94"/>
+    <n v="2379"/>
+    <n v="16.5"/>
+    <n v="73"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="18"/>
+    <x v="3"/>
+    <n v="70"/>
+    <n v="90"/>
+    <n v="2124"/>
+    <n v="13.5"/>
+    <n v="73"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="19"/>
+    <x v="1"/>
+    <n v="122"/>
+    <n v="85"/>
+    <n v="2310"/>
+    <n v="18.5"/>
+    <n v="73"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="21"/>
+    <x v="2"/>
+    <n v="155"/>
+    <n v="107"/>
+    <n v="2472"/>
+    <n v="14"/>
+    <n v="73"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="26"/>
+    <x v="1"/>
+    <n v="98"/>
+    <n v="90"/>
+    <n v="2265"/>
+    <n v="15.5"/>
+    <n v="73"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="15"/>
+    <x v="0"/>
+    <n v="350"/>
+    <n v="145"/>
+    <n v="4082"/>
+    <n v="13"/>
+    <n v="73"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="16"/>
+    <x v="0"/>
+    <n v="400"/>
+    <n v="230"/>
+    <n v="4278"/>
+    <n v="9.5"/>
+    <n v="73"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="29"/>
+    <x v="1"/>
+    <n v="68"/>
+    <n v="49"/>
+    <n v="1867"/>
+    <n v="19.5"/>
+    <n v="73"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="24"/>
+    <x v="1"/>
+    <n v="116"/>
+    <n v="75"/>
+    <n v="2158"/>
+    <n v="15.5"/>
+    <n v="73"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="20"/>
+    <x v="1"/>
+    <n v="114"/>
+    <n v="91"/>
+    <n v="2582"/>
+    <n v="14"/>
+    <n v="73"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="19"/>
+    <x v="1"/>
+    <n v="121"/>
+    <n v="112"/>
+    <n v="2868"/>
+    <n v="15.5"/>
+    <n v="73"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="15"/>
+    <x v="0"/>
+    <n v="318"/>
+    <n v="150"/>
+    <n v="3399"/>
+    <n v="11"/>
+    <n v="73"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="24"/>
+    <x v="1"/>
+    <n v="121"/>
+    <n v="110"/>
+    <n v="2660"/>
+    <n v="14"/>
+    <n v="73"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="20"/>
+    <x v="2"/>
+    <n v="156"/>
+    <n v="122"/>
+    <n v="2807"/>
+    <n v="13.5"/>
+    <n v="73"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="11"/>
+    <x v="0"/>
+    <n v="350"/>
+    <n v="180"/>
+    <n v="3664"/>
+    <n v="11"/>
+    <n v="73"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="20"/>
+    <x v="2"/>
+    <n v="198"/>
+    <n v="95"/>
+    <n v="3102"/>
+    <n v="16.5"/>
+    <n v="74"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="21"/>
+    <x v="2"/>
+    <n v="200"/>
+    <m/>
+    <n v="2875"/>
+    <n v="17"/>
+    <n v="74"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="19"/>
+    <x v="2"/>
+    <n v="232"/>
+    <n v="100"/>
+    <n v="2901"/>
+    <n v="16"/>
+    <n v="74"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="15"/>
+    <x v="2"/>
+    <n v="250"/>
+    <n v="100"/>
+    <n v="3336"/>
+    <n v="17"/>
+    <n v="74"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="31"/>
+    <x v="1"/>
+    <n v="79"/>
+    <n v="67"/>
+    <n v="1950"/>
+    <n v="19"/>
+    <n v="74"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="26"/>
+    <x v="1"/>
+    <n v="122"/>
+    <n v="80"/>
+    <n v="2451"/>
+    <n v="16.5"/>
+    <n v="74"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="32"/>
+    <x v="1"/>
+    <n v="71"/>
+    <n v="65"/>
+    <n v="1836"/>
+    <n v="21"/>
+    <n v="74"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="25"/>
+    <x v="1"/>
+    <n v="140"/>
+    <n v="75"/>
+    <n v="2542"/>
+    <n v="17"/>
+    <n v="74"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="16"/>
+    <x v="2"/>
+    <n v="250"/>
+    <n v="100"/>
+    <n v="3781"/>
+    <n v="17"/>
+    <n v="74"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="16"/>
+    <x v="2"/>
+    <n v="258"/>
+    <n v="110"/>
+    <n v="3632"/>
+    <n v="18"/>
+    <n v="74"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="18"/>
+    <x v="2"/>
+    <n v="225"/>
+    <n v="105"/>
+    <n v="3613"/>
+    <n v="16.5"/>
+    <n v="74"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="16"/>
+    <x v="0"/>
+    <n v="302"/>
+    <n v="140"/>
+    <n v="4141"/>
+    <n v="14"/>
+    <n v="74"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="13"/>
+    <x v="0"/>
+    <n v="350"/>
+    <n v="150"/>
+    <n v="4699"/>
+    <n v="14.5"/>
+    <n v="74"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <x v="0"/>
+    <n v="318"/>
+    <n v="150"/>
+    <n v="4457"/>
+    <n v="13.5"/>
+    <n v="74"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <x v="0"/>
+    <n v="302"/>
+    <n v="140"/>
+    <n v="4638"/>
+    <n v="16"/>
+    <n v="74"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <x v="0"/>
+    <n v="304"/>
+    <n v="150"/>
+    <n v="4257"/>
+    <n v="15.5"/>
+    <n v="74"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="29"/>
+    <x v="1"/>
+    <n v="98"/>
+    <n v="83"/>
+    <n v="2219"/>
+    <n v="16.5"/>
+    <n v="74"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="26"/>
+    <x v="1"/>
+    <n v="79"/>
+    <n v="67"/>
+    <n v="1963"/>
+    <n v="15.5"/>
+    <n v="74"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="26"/>
+    <x v="1"/>
+    <n v="97"/>
+    <n v="78"/>
+    <n v="2300"/>
+    <n v="14.5"/>
+    <n v="74"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="31"/>
+    <x v="1"/>
+    <n v="76"/>
+    <n v="52"/>
+    <n v="1649"/>
+    <n v="16.5"/>
+    <n v="74"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="32"/>
+    <x v="1"/>
+    <n v="83"/>
+    <n v="61"/>
+    <n v="2003"/>
+    <n v="19"/>
+    <n v="74"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="28"/>
+    <x v="1"/>
+    <n v="90"/>
+    <n v="75"/>
+    <n v="2125"/>
+    <n v="14.5"/>
+    <n v="74"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="24"/>
+    <x v="1"/>
+    <n v="90"/>
+    <n v="75"/>
+    <n v="2108"/>
+    <n v="15.5"/>
+    <n v="74"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="26"/>
+    <x v="1"/>
+    <n v="116"/>
+    <n v="75"/>
+    <n v="2246"/>
+    <n v="14"/>
+    <n v="74"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="24"/>
+    <x v="1"/>
+    <n v="120"/>
+    <n v="97"/>
+    <n v="2489"/>
+    <n v="15"/>
+    <n v="74"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="26"/>
+    <x v="1"/>
+    <n v="108"/>
+    <n v="93"/>
+    <n v="2391"/>
+    <n v="15.5"/>
+    <n v="74"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="31"/>
+    <x v="1"/>
+    <n v="79"/>
+    <n v="67"/>
+    <n v="2000"/>
+    <n v="16"/>
+    <n v="74"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="19"/>
+    <x v="2"/>
+    <n v="225"/>
+    <n v="95"/>
+    <n v="3264"/>
+    <n v="16"/>
+    <n v="75"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="18"/>
+    <x v="2"/>
+    <n v="250"/>
+    <n v="105"/>
+    <n v="3459"/>
+    <n v="16"/>
+    <n v="75"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="15"/>
+    <x v="2"/>
+    <n v="250"/>
+    <n v="72"/>
+    <n v="3432"/>
+    <n v="21"/>
+    <n v="75"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="15"/>
+    <x v="2"/>
+    <n v="250"/>
+    <n v="72"/>
+    <n v="3158"/>
+    <n v="19.5"/>
+    <n v="75"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="16"/>
+    <x v="0"/>
+    <n v="400"/>
+    <n v="170"/>
+    <n v="4668"/>
+    <n v="11.5"/>
+    <n v="75"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="15"/>
+    <x v="0"/>
+    <n v="350"/>
+    <n v="145"/>
+    <n v="4440"/>
+    <n v="14"/>
+    <n v="75"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="16"/>
+    <x v="0"/>
+    <n v="318"/>
+    <n v="150"/>
+    <n v="4498"/>
+    <n v="14.5"/>
+    <n v="75"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <x v="0"/>
+    <n v="351"/>
+    <n v="148"/>
+    <n v="4657"/>
+    <n v="13.5"/>
+    <n v="75"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="17"/>
+    <x v="2"/>
+    <n v="231"/>
+    <n v="110"/>
+    <n v="3907"/>
+    <n v="21"/>
+    <n v="75"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="16"/>
+    <x v="2"/>
+    <n v="250"/>
+    <n v="105"/>
+    <n v="3897"/>
+    <n v="18.5"/>
+    <n v="75"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="15"/>
+    <x v="2"/>
+    <n v="258"/>
+    <n v="110"/>
+    <n v="3730"/>
+    <n v="19"/>
+    <n v="75"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="18"/>
+    <x v="2"/>
+    <n v="225"/>
+    <n v="95"/>
+    <n v="3785"/>
+    <n v="19"/>
+    <n v="75"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="21"/>
+    <x v="2"/>
+    <n v="231"/>
+    <n v="110"/>
+    <n v="3039"/>
+    <n v="15"/>
+    <n v="75"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="20"/>
+    <x v="0"/>
+    <n v="262"/>
+    <n v="110"/>
+    <n v="3221"/>
+    <n v="13.5"/>
+    <n v="75"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="13"/>
+    <x v="0"/>
+    <n v="302"/>
+    <n v="129"/>
+    <n v="3169"/>
+    <n v="12"/>
+    <n v="75"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="29"/>
+    <x v="1"/>
+    <n v="97"/>
+    <n v="75"/>
+    <n v="2171"/>
+    <n v="16"/>
+    <n v="75"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="23"/>
+    <x v="1"/>
+    <n v="140"/>
+    <n v="83"/>
+    <n v="2639"/>
+    <n v="17"/>
+    <n v="75"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="20"/>
+    <x v="2"/>
+    <n v="232"/>
+    <n v="100"/>
+    <n v="2914"/>
+    <n v="16"/>
+    <n v="75"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="23"/>
+    <x v="1"/>
+    <n v="140"/>
+    <n v="78"/>
+    <n v="2592"/>
+    <n v="18.5"/>
+    <n v="75"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="24"/>
+    <x v="1"/>
+    <n v="134"/>
+    <n v="96"/>
+    <n v="2702"/>
+    <n v="13.5"/>
+    <n v="75"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="25"/>
+    <x v="1"/>
+    <n v="90"/>
+    <n v="71"/>
+    <n v="2223"/>
+    <n v="16.5"/>
+    <n v="75"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="24"/>
+    <x v="1"/>
+    <n v="119"/>
+    <n v="97"/>
+    <n v="2545"/>
+    <n v="17"/>
+    <n v="75"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="18"/>
+    <x v="2"/>
+    <n v="171"/>
+    <n v="97"/>
+    <n v="2984"/>
+    <n v="14.5"/>
+    <n v="75"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="29"/>
+    <x v="1"/>
+    <n v="90"/>
+    <n v="70"/>
+    <n v="1937"/>
+    <n v="14"/>
+    <n v="75"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="19"/>
+    <x v="2"/>
+    <n v="232"/>
+    <n v="90"/>
+    <n v="3211"/>
+    <n v="17"/>
+    <n v="75"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="23"/>
+    <x v="1"/>
+    <n v="115"/>
+    <n v="95"/>
+    <n v="2694"/>
+    <n v="15"/>
+    <n v="75"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="23"/>
+    <x v="1"/>
+    <n v="120"/>
+    <n v="88"/>
+    <n v="2957"/>
+    <n v="17"/>
+    <n v="75"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="22"/>
+    <x v="1"/>
+    <n v="121"/>
+    <n v="98"/>
+    <n v="2945"/>
+    <n v="14.5"/>
+    <n v="75"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="25"/>
+    <x v="1"/>
+    <n v="121"/>
+    <n v="115"/>
+    <n v="2671"/>
+    <n v="13.5"/>
+    <n v="75"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="33"/>
+    <x v="1"/>
+    <n v="91"/>
+    <n v="53"/>
+    <n v="1795"/>
+    <n v="17.5"/>
+    <n v="75"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="28"/>
+    <x v="1"/>
+    <n v="107"/>
+    <n v="86"/>
+    <n v="2464"/>
+    <n v="15.5"/>
+    <n v="76"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="25"/>
+    <x v="1"/>
+    <n v="116"/>
+    <n v="81"/>
+    <n v="2220"/>
+    <n v="16.899999999999999"/>
+    <n v="76"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="25"/>
+    <x v="1"/>
+    <n v="140"/>
+    <n v="92"/>
+    <n v="2572"/>
+    <n v="14.9"/>
+    <n v="76"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="26"/>
+    <x v="1"/>
+    <n v="98"/>
+    <n v="79"/>
+    <n v="2255"/>
+    <n v="17.7"/>
+    <n v="76"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="27"/>
+    <x v="1"/>
+    <n v="101"/>
+    <n v="83"/>
+    <n v="2202"/>
+    <n v="15.3"/>
+    <n v="76"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="17.5"/>
+    <x v="0"/>
+    <n v="305"/>
+    <n v="140"/>
+    <n v="4215"/>
+    <n v="13"/>
+    <n v="76"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="16"/>
+    <x v="0"/>
+    <n v="318"/>
+    <n v="150"/>
+    <n v="4190"/>
+    <n v="13"/>
+    <n v="76"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="15.5"/>
+    <x v="0"/>
+    <n v="304"/>
+    <n v="120"/>
+    <n v="3962"/>
+    <n v="13.9"/>
+    <n v="76"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="14.5"/>
+    <x v="0"/>
+    <n v="351"/>
+    <n v="152"/>
+    <n v="4215"/>
+    <n v="12.8"/>
+    <n v="76"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="22"/>
+    <x v="2"/>
+    <n v="225"/>
+    <n v="100"/>
+    <n v="3233"/>
+    <n v="15.4"/>
+    <n v="76"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="22"/>
+    <x v="2"/>
+    <n v="250"/>
+    <n v="105"/>
+    <n v="3353"/>
+    <n v="14.5"/>
+    <n v="76"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="24"/>
+    <x v="2"/>
+    <n v="200"/>
+    <n v="81"/>
+    <n v="3012"/>
+    <n v="17.600000000000001"/>
+    <n v="76"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="22.5"/>
+    <x v="2"/>
+    <n v="232"/>
+    <n v="90"/>
+    <n v="3085"/>
+    <n v="17.600000000000001"/>
+    <n v="76"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="29"/>
+    <x v="1"/>
+    <n v="85"/>
+    <n v="52"/>
+    <n v="2035"/>
+    <n v="22.2"/>
+    <n v="76"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="24.5"/>
+    <x v="1"/>
+    <n v="98"/>
+    <n v="60"/>
+    <n v="2164"/>
+    <n v="22.1"/>
+    <n v="76"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="29"/>
+    <x v="1"/>
+    <n v="90"/>
+    <n v="70"/>
+    <n v="1937"/>
+    <n v="14.2"/>
+    <n v="76"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="33"/>
+    <x v="1"/>
+    <n v="91"/>
+    <n v="53"/>
+    <n v="1795"/>
+    <n v="17.399999999999999"/>
+    <n v="76"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="20"/>
+    <x v="2"/>
+    <n v="225"/>
+    <n v="100"/>
+    <n v="3651"/>
+    <n v="17.7"/>
+    <n v="76"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="18"/>
+    <x v="2"/>
+    <n v="250"/>
+    <n v="78"/>
+    <n v="3574"/>
+    <n v="21"/>
+    <n v="76"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="18.5"/>
+    <x v="2"/>
+    <n v="250"/>
+    <n v="110"/>
+    <n v="3645"/>
+    <n v="16.2"/>
+    <n v="76"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="17.5"/>
+    <x v="2"/>
+    <n v="258"/>
+    <n v="95"/>
+    <n v="3193"/>
+    <n v="17.8"/>
+    <n v="76"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="29.5"/>
+    <x v="1"/>
+    <n v="97"/>
+    <n v="71"/>
+    <n v="1825"/>
+    <n v="12.2"/>
+    <n v="76"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="32"/>
+    <x v="1"/>
+    <n v="85"/>
+    <n v="70"/>
+    <n v="1990"/>
+    <n v="17"/>
+    <n v="76"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="28"/>
+    <x v="1"/>
+    <n v="97"/>
+    <n v="75"/>
+    <n v="2155"/>
+    <n v="16.399999999999999"/>
+    <n v="76"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="26.5"/>
+    <x v="1"/>
+    <n v="140"/>
+    <n v="72"/>
+    <n v="2565"/>
+    <n v="13.6"/>
+    <n v="76"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="20"/>
+    <x v="1"/>
+    <n v="130"/>
+    <n v="102"/>
+    <n v="3150"/>
+    <n v="15.7"/>
+    <n v="76"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="13"/>
+    <x v="0"/>
+    <n v="318"/>
+    <n v="150"/>
+    <n v="3940"/>
+    <n v="13.2"/>
+    <n v="76"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="19"/>
+    <x v="1"/>
+    <n v="120"/>
+    <n v="88"/>
+    <n v="3270"/>
+    <n v="21.9"/>
+    <n v="76"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="19"/>
+    <x v="2"/>
+    <n v="156"/>
+    <n v="108"/>
+    <n v="2930"/>
+    <n v="15.5"/>
+    <n v="76"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="16.5"/>
+    <x v="2"/>
+    <n v="168"/>
+    <n v="120"/>
+    <n v="3820"/>
+    <n v="16.7"/>
+    <n v="76"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="16.5"/>
+    <x v="0"/>
+    <n v="350"/>
+    <n v="180"/>
+    <n v="4380"/>
+    <n v="12.1"/>
+    <n v="76"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="13"/>
+    <x v="0"/>
+    <n v="350"/>
+    <n v="145"/>
+    <n v="4055"/>
+    <n v="12"/>
+    <n v="76"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="13"/>
+    <x v="0"/>
+    <n v="302"/>
+    <n v="130"/>
+    <n v="3870"/>
+    <n v="15"/>
+    <n v="76"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="13"/>
+    <x v="0"/>
+    <n v="318"/>
+    <n v="150"/>
+    <n v="3755"/>
+    <n v="14"/>
+    <n v="76"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="31.5"/>
+    <x v="1"/>
+    <n v="98"/>
+    <n v="68"/>
+    <n v="2045"/>
+    <n v="18.5"/>
+    <n v="77"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="30"/>
+    <x v="1"/>
+    <n v="111"/>
+    <n v="80"/>
+    <n v="2155"/>
+    <n v="14.8"/>
+    <n v="77"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="36"/>
+    <x v="1"/>
+    <n v="79"/>
+    <n v="58"/>
+    <n v="1825"/>
+    <n v="18.600000000000001"/>
+    <n v="77"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="25.5"/>
+    <x v="1"/>
+    <n v="122"/>
+    <n v="96"/>
+    <n v="2300"/>
+    <n v="15.5"/>
+    <n v="77"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="33.5"/>
+    <x v="1"/>
+    <n v="85"/>
+    <n v="70"/>
+    <n v="1945"/>
+    <n v="16.8"/>
+    <n v="77"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="17.5"/>
+    <x v="0"/>
+    <n v="305"/>
+    <n v="145"/>
+    <n v="3880"/>
+    <n v="12.5"/>
+    <n v="77"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="17"/>
+    <x v="0"/>
+    <n v="260"/>
+    <n v="110"/>
+    <n v="4060"/>
+    <n v="19"/>
+    <n v="77"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="15.5"/>
+    <x v="0"/>
+    <n v="318"/>
+    <n v="145"/>
+    <n v="4140"/>
+    <n v="13.7"/>
+    <n v="77"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="15"/>
+    <x v="0"/>
+    <n v="302"/>
+    <n v="130"/>
+    <n v="4295"/>
+    <n v="14.9"/>
+    <n v="77"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="17.5"/>
+    <x v="2"/>
+    <n v="250"/>
+    <n v="110"/>
+    <n v="3520"/>
+    <n v="16.399999999999999"/>
+    <n v="77"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="20.5"/>
+    <x v="2"/>
+    <n v="231"/>
+    <n v="105"/>
+    <n v="3425"/>
+    <n v="16.899999999999999"/>
+    <n v="77"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="19"/>
+    <x v="2"/>
+    <n v="225"/>
+    <n v="100"/>
+    <n v="3630"/>
+    <n v="17.7"/>
+    <n v="77"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="18.5"/>
+    <x v="2"/>
+    <n v="250"/>
+    <n v="98"/>
+    <n v="3525"/>
+    <n v="19"/>
+    <n v="77"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="16"/>
+    <x v="0"/>
+    <n v="400"/>
+    <n v="180"/>
+    <n v="4220"/>
+    <n v="11.1"/>
+    <n v="77"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="15.5"/>
+    <x v="0"/>
+    <n v="350"/>
+    <n v="170"/>
+    <n v="4165"/>
+    <n v="11.4"/>
+    <n v="77"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="15.5"/>
+    <x v="0"/>
+    <n v="400"/>
+    <n v="190"/>
+    <n v="4325"/>
+    <n v="12.2"/>
+    <n v="77"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="16"/>
+    <x v="0"/>
+    <n v="351"/>
+    <n v="149"/>
+    <n v="4335"/>
+    <n v="14.5"/>
+    <n v="77"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="29"/>
+    <x v="1"/>
+    <n v="97"/>
+    <n v="78"/>
+    <n v="1940"/>
+    <n v="14.5"/>
+    <n v="77"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="24.5"/>
+    <x v="1"/>
+    <n v="151"/>
+    <n v="88"/>
+    <n v="2740"/>
+    <n v="16"/>
+    <n v="77"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="26"/>
+    <x v="1"/>
+    <n v="97"/>
+    <n v="75"/>
+    <n v="2265"/>
+    <n v="18.2"/>
+    <n v="77"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="25.5"/>
+    <x v="1"/>
+    <n v="140"/>
+    <n v="89"/>
+    <n v="2755"/>
+    <n v="15.8"/>
+    <n v="77"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="30.5"/>
+    <x v="1"/>
+    <n v="98"/>
+    <n v="63"/>
+    <n v="2051"/>
+    <n v="17"/>
+    <n v="77"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="33.5"/>
+    <x v="1"/>
+    <n v="98"/>
+    <n v="83"/>
+    <n v="2075"/>
+    <n v="15.9"/>
+    <n v="77"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="30"/>
+    <x v="1"/>
+    <n v="97"/>
+    <n v="67"/>
+    <n v="1985"/>
+    <n v="16.399999999999999"/>
+    <n v="77"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="30.5"/>
+    <x v="1"/>
+    <n v="97"/>
+    <n v="78"/>
+    <n v="2190"/>
+    <n v="14.1"/>
+    <n v="77"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="22"/>
+    <x v="2"/>
+    <n v="146"/>
+    <n v="97"/>
+    <n v="2815"/>
+    <n v="14.5"/>
+    <n v="77"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="21.5"/>
+    <x v="1"/>
+    <n v="121"/>
+    <n v="110"/>
+    <n v="2600"/>
+    <n v="12.8"/>
+    <n v="77"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="21.5"/>
+    <x v="3"/>
+    <n v="80"/>
+    <n v="110"/>
+    <n v="2720"/>
+    <n v="13.5"/>
+    <n v="77"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="43.1"/>
+    <x v="1"/>
+    <n v="90"/>
+    <n v="48"/>
+    <n v="1985"/>
+    <n v="21.5"/>
+    <n v="78"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="36.1"/>
+    <x v="1"/>
+    <n v="98"/>
+    <n v="66"/>
+    <n v="1800"/>
+    <n v="14.4"/>
+    <n v="78"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="32.799999999999997"/>
+    <x v="1"/>
+    <n v="78"/>
+    <n v="52"/>
+    <n v="1985"/>
+    <n v="19.399999999999999"/>
+    <n v="78"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="39.4"/>
+    <x v="1"/>
+    <n v="85"/>
+    <n v="70"/>
+    <n v="2070"/>
+    <n v="18.600000000000001"/>
+    <n v="78"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="36.1"/>
+    <x v="1"/>
+    <n v="91"/>
+    <n v="60"/>
+    <n v="1800"/>
+    <n v="16.399999999999999"/>
+    <n v="78"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="19.899999999999999"/>
+    <x v="0"/>
+    <n v="260"/>
+    <n v="110"/>
+    <n v="3365"/>
+    <n v="15.5"/>
+    <n v="78"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="19.399999999999999"/>
+    <x v="0"/>
+    <n v="318"/>
+    <n v="140"/>
+    <n v="3735"/>
+    <n v="13.2"/>
+    <n v="78"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="20.2"/>
+    <x v="0"/>
+    <n v="302"/>
+    <n v="139"/>
+    <n v="3570"/>
+    <n v="12.8"/>
+    <n v="78"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="19.2"/>
+    <x v="2"/>
+    <n v="231"/>
+    <n v="105"/>
+    <n v="3535"/>
+    <n v="19.2"/>
+    <n v="78"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="20.5"/>
+    <x v="2"/>
+    <n v="200"/>
+    <n v="95"/>
+    <n v="3155"/>
+    <n v="18.2"/>
+    <n v="78"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="20.2"/>
+    <x v="2"/>
+    <n v="200"/>
+    <n v="85"/>
+    <n v="2965"/>
+    <n v="15.8"/>
+    <n v="78"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="25.1"/>
+    <x v="1"/>
+    <n v="140"/>
+    <n v="88"/>
+    <n v="2720"/>
+    <n v="15.4"/>
+    <n v="78"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="20.5"/>
+    <x v="2"/>
+    <n v="225"/>
+    <n v="100"/>
+    <n v="3430"/>
+    <n v="17.2"/>
+    <n v="78"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="19.399999999999999"/>
+    <x v="2"/>
+    <n v="232"/>
+    <n v="90"/>
+    <n v="3210"/>
+    <n v="17.2"/>
+    <n v="78"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="20.6"/>
+    <x v="2"/>
+    <n v="231"/>
+    <n v="105"/>
+    <n v="3380"/>
+    <n v="15.8"/>
+    <n v="78"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="20.8"/>
+    <x v="2"/>
+    <n v="200"/>
+    <n v="85"/>
+    <n v="3070"/>
+    <n v="16.7"/>
+    <n v="78"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="18.600000000000001"/>
+    <x v="2"/>
+    <n v="225"/>
+    <n v="110"/>
+    <n v="3620"/>
+    <n v="18.7"/>
+    <n v="78"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="18.100000000000001"/>
+    <x v="2"/>
+    <n v="258"/>
+    <n v="120"/>
+    <n v="3410"/>
+    <n v="15.1"/>
+    <n v="78"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="19.2"/>
+    <x v="0"/>
+    <n v="305"/>
+    <n v="145"/>
+    <n v="3425"/>
+    <n v="13.2"/>
+    <n v="78"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="17.7"/>
+    <x v="2"/>
+    <n v="231"/>
+    <n v="165"/>
+    <n v="3445"/>
+    <n v="13.4"/>
+    <n v="78"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="18.100000000000001"/>
+    <x v="0"/>
+    <n v="302"/>
+    <n v="139"/>
+    <n v="3205"/>
+    <n v="11.2"/>
+    <n v="78"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="17.5"/>
+    <x v="0"/>
+    <n v="318"/>
+    <n v="140"/>
+    <n v="4080"/>
+    <n v="13.7"/>
+    <n v="78"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="30"/>
+    <x v="1"/>
+    <n v="98"/>
+    <n v="68"/>
+    <n v="2155"/>
+    <n v="16.5"/>
+    <n v="78"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="27.5"/>
+    <x v="1"/>
+    <n v="134"/>
+    <n v="95"/>
+    <n v="2560"/>
+    <n v="14.2"/>
+    <n v="78"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="27.2"/>
+    <x v="1"/>
+    <n v="119"/>
+    <n v="97"/>
+    <n v="2300"/>
+    <n v="14.7"/>
+    <n v="78"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="30.9"/>
+    <x v="1"/>
+    <n v="105"/>
+    <n v="75"/>
+    <n v="2230"/>
+    <n v="14.5"/>
+    <n v="78"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="21.1"/>
+    <x v="1"/>
+    <n v="134"/>
+    <n v="95"/>
+    <n v="2515"/>
+    <n v="14.8"/>
+    <n v="78"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="23.2"/>
+    <x v="1"/>
+    <n v="156"/>
+    <n v="105"/>
+    <n v="2745"/>
+    <n v="16.7"/>
+    <n v="78"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="23.8"/>
+    <x v="1"/>
+    <n v="151"/>
+    <n v="85"/>
+    <n v="2855"/>
+    <n v="17.600000000000001"/>
+    <n v="78"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="23.9"/>
+    <x v="1"/>
+    <n v="119"/>
+    <n v="97"/>
+    <n v="2405"/>
+    <n v="14.9"/>
+    <n v="78"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="20.3"/>
+    <x v="4"/>
+    <n v="131"/>
+    <n v="103"/>
+    <n v="2830"/>
+    <n v="15.9"/>
+    <n v="78"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="17"/>
+    <x v="2"/>
+    <n v="163"/>
+    <n v="125"/>
+    <n v="3140"/>
+    <n v="13.6"/>
+    <n v="78"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="21.6"/>
+    <x v="1"/>
+    <n v="121"/>
+    <n v="115"/>
+    <n v="2795"/>
+    <n v="15.7"/>
+    <n v="78"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="16.2"/>
+    <x v="2"/>
+    <n v="163"/>
+    <n v="133"/>
+    <n v="3410"/>
+    <n v="15.8"/>
+    <n v="78"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="31.5"/>
+    <x v="1"/>
+    <n v="89"/>
+    <n v="71"/>
+    <n v="1990"/>
+    <n v="14.9"/>
+    <n v="78"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="29.5"/>
+    <x v="1"/>
+    <n v="98"/>
+    <n v="68"/>
+    <n v="2135"/>
+    <n v="16.600000000000001"/>
+    <n v="78"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="21.5"/>
+    <x v="2"/>
+    <n v="231"/>
+    <n v="115"/>
+    <n v="3245"/>
+    <n v="15.4"/>
+    <n v="79"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="19.8"/>
+    <x v="2"/>
+    <n v="200"/>
+    <n v="85"/>
+    <n v="2990"/>
+    <n v="18.2"/>
+    <n v="79"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="22.3"/>
+    <x v="1"/>
+    <n v="140"/>
+    <n v="88"/>
+    <n v="2890"/>
+    <n v="17.3"/>
+    <n v="79"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="20.2"/>
+    <x v="2"/>
+    <n v="232"/>
+    <n v="90"/>
+    <n v="3265"/>
+    <n v="18.2"/>
+    <n v="79"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="20.6"/>
+    <x v="2"/>
+    <n v="225"/>
+    <n v="110"/>
+    <n v="3360"/>
+    <n v="16.600000000000001"/>
+    <n v="79"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="17"/>
+    <x v="0"/>
+    <n v="305"/>
+    <n v="130"/>
+    <n v="3840"/>
+    <n v="15.4"/>
+    <n v="79"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="17.600000000000001"/>
+    <x v="0"/>
+    <n v="302"/>
+    <n v="129"/>
+    <n v="3725"/>
+    <n v="13.4"/>
+    <n v="79"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="16.5"/>
+    <x v="0"/>
+    <n v="351"/>
+    <n v="138"/>
+    <n v="3955"/>
+    <n v="13.2"/>
+    <n v="79"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="18.2"/>
+    <x v="0"/>
+    <n v="318"/>
+    <n v="135"/>
+    <n v="3830"/>
+    <n v="15.2"/>
+    <n v="79"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="16.899999999999999"/>
+    <x v="0"/>
+    <n v="350"/>
+    <n v="155"/>
+    <n v="4360"/>
+    <n v="14.9"/>
+    <n v="79"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="15.5"/>
+    <x v="0"/>
+    <n v="351"/>
+    <n v="142"/>
+    <n v="4054"/>
+    <n v="14.3"/>
+    <n v="79"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="19.2"/>
+    <x v="0"/>
+    <n v="267"/>
+    <n v="125"/>
+    <n v="3605"/>
+    <n v="15"/>
+    <n v="79"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="18.5"/>
+    <x v="0"/>
+    <n v="360"/>
+    <n v="150"/>
+    <n v="3940"/>
+    <n v="13"/>
+    <n v="79"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="31.9"/>
+    <x v="1"/>
+    <n v="89"/>
+    <n v="71"/>
+    <n v="1925"/>
+    <n v="14"/>
+    <n v="79"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="34.1"/>
+    <x v="1"/>
+    <n v="86"/>
+    <n v="65"/>
+    <n v="1975"/>
+    <n v="15.2"/>
+    <n v="79"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="35.700000000000003"/>
+    <x v="1"/>
+    <n v="98"/>
+    <n v="80"/>
+    <n v="1915"/>
+    <n v="14.4"/>
+    <n v="79"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="27.4"/>
+    <x v="1"/>
+    <n v="121"/>
+    <n v="80"/>
+    <n v="2670"/>
+    <n v="15"/>
+    <n v="79"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="25.4"/>
+    <x v="4"/>
+    <n v="183"/>
+    <n v="77"/>
+    <n v="3530"/>
+    <n v="20.100000000000001"/>
+    <n v="79"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="23"/>
+    <x v="0"/>
+    <n v="350"/>
+    <n v="125"/>
+    <n v="3900"/>
+    <n v="17.399999999999999"/>
+    <n v="79"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="27.2"/>
+    <x v="1"/>
+    <n v="141"/>
+    <n v="71"/>
+    <n v="3190"/>
+    <n v="24.8"/>
+    <n v="79"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="23.9"/>
+    <x v="0"/>
+    <n v="260"/>
+    <n v="90"/>
+    <n v="3420"/>
+    <n v="22.2"/>
+    <n v="79"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="34.200000000000003"/>
+    <x v="1"/>
+    <n v="105"/>
+    <n v="70"/>
+    <n v="2200"/>
+    <n v="13.2"/>
+    <n v="79"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="34.5"/>
+    <x v="1"/>
+    <n v="105"/>
+    <n v="70"/>
+    <n v="2150"/>
+    <n v="14.9"/>
+    <n v="79"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="31.8"/>
+    <x v="1"/>
+    <n v="85"/>
+    <n v="65"/>
+    <n v="2020"/>
+    <n v="19.2"/>
+    <n v="79"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="37.299999999999997"/>
+    <x v="1"/>
+    <n v="91"/>
+    <n v="69"/>
+    <n v="2130"/>
+    <n v="14.7"/>
+    <n v="79"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="28.4"/>
+    <x v="1"/>
+    <n v="151"/>
+    <n v="90"/>
+    <n v="2670"/>
+    <n v="16"/>
+    <n v="79"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="28.8"/>
+    <x v="2"/>
+    <n v="173"/>
+    <n v="115"/>
+    <n v="2595"/>
+    <n v="11.3"/>
+    <n v="79"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="26.8"/>
+    <x v="2"/>
+    <n v="173"/>
+    <n v="115"/>
+    <n v="2700"/>
+    <n v="12.9"/>
+    <n v="79"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="33.5"/>
+    <x v="1"/>
+    <n v="151"/>
+    <n v="90"/>
+    <n v="2556"/>
+    <n v="13.2"/>
+    <n v="79"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="41.5"/>
+    <x v="1"/>
+    <n v="98"/>
+    <n v="76"/>
+    <n v="2144"/>
+    <n v="14.7"/>
+    <n v="80"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="38.1"/>
+    <x v="1"/>
+    <n v="89"/>
+    <n v="60"/>
+    <n v="1968"/>
+    <n v="18.8"/>
+    <n v="80"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="32.1"/>
+    <x v="1"/>
+    <n v="98"/>
+    <n v="70"/>
+    <n v="2120"/>
+    <n v="15.5"/>
+    <n v="80"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="37.200000000000003"/>
+    <x v="1"/>
+    <n v="86"/>
+    <n v="65"/>
+    <n v="2019"/>
+    <n v="16.399999999999999"/>
+    <n v="80"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="28"/>
+    <x v="1"/>
+    <n v="151"/>
+    <n v="90"/>
+    <n v="2678"/>
+    <n v="16.5"/>
+    <n v="80"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="26.4"/>
+    <x v="1"/>
+    <n v="140"/>
+    <n v="88"/>
+    <n v="2870"/>
+    <n v="18.100000000000001"/>
+    <n v="80"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="24.3"/>
+    <x v="1"/>
+    <n v="151"/>
+    <n v="90"/>
+    <n v="3003"/>
+    <n v="20.100000000000001"/>
+    <n v="80"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="19.100000000000001"/>
+    <x v="2"/>
+    <n v="225"/>
+    <n v="90"/>
+    <n v="3381"/>
+    <n v="18.7"/>
+    <n v="80"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="34.299999999999997"/>
+    <x v="1"/>
+    <n v="97"/>
+    <n v="78"/>
+    <n v="2188"/>
+    <n v="15.8"/>
+    <n v="80"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="29.8"/>
+    <x v="1"/>
+    <n v="134"/>
+    <n v="90"/>
+    <n v="2711"/>
+    <n v="15.5"/>
+    <n v="80"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="31.3"/>
+    <x v="1"/>
+    <n v="120"/>
+    <n v="75"/>
+    <n v="2542"/>
+    <n v="17.5"/>
+    <n v="80"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="37"/>
+    <x v="1"/>
+    <n v="119"/>
+    <n v="92"/>
+    <n v="2434"/>
+    <n v="15"/>
+    <n v="80"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="32.200000000000003"/>
+    <x v="1"/>
+    <n v="108"/>
+    <n v="75"/>
+    <n v="2265"/>
+    <n v="15.2"/>
+    <n v="80"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="46.6"/>
+    <x v="1"/>
+    <n v="86"/>
+    <n v="65"/>
+    <n v="2110"/>
+    <n v="17.899999999999999"/>
+    <n v="80"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="27.9"/>
+    <x v="1"/>
+    <n v="156"/>
+    <n v="105"/>
+    <n v="2800"/>
+    <n v="14.4"/>
+    <n v="80"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="40.799999999999997"/>
+    <x v="1"/>
+    <n v="85"/>
+    <n v="65"/>
+    <n v="2110"/>
+    <n v="19.2"/>
+    <n v="80"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="44.3"/>
+    <x v="1"/>
+    <n v="90"/>
+    <n v="48"/>
+    <n v="2085"/>
+    <n v="21.7"/>
+    <n v="80"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="43.4"/>
+    <x v="1"/>
+    <n v="90"/>
+    <n v="48"/>
+    <n v="2335"/>
+    <n v="23.7"/>
+    <n v="80"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="36.4"/>
+    <x v="4"/>
+    <n v="121"/>
+    <n v="67"/>
+    <n v="2950"/>
+    <n v="19.899999999999999"/>
+    <n v="80"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="30"/>
+    <x v="1"/>
+    <n v="146"/>
+    <n v="67"/>
+    <n v="3250"/>
+    <n v="21.8"/>
+    <n v="80"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="44.6"/>
+    <x v="1"/>
+    <n v="91"/>
+    <n v="67"/>
+    <n v="1850"/>
+    <n v="13.8"/>
+    <n v="80"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="40.9"/>
+    <x v="1"/>
+    <n v="85"/>
+    <m/>
+    <n v="1835"/>
+    <n v="17.3"/>
+    <n v="80"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="33.799999999999997"/>
+    <x v="1"/>
+    <n v="97"/>
+    <n v="67"/>
+    <n v="2145"/>
+    <n v="18"/>
+    <n v="80"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="29.8"/>
+    <x v="1"/>
+    <n v="89"/>
+    <n v="62"/>
+    <n v="1845"/>
+    <n v="15.3"/>
+    <n v="80"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="32.700000000000003"/>
+    <x v="2"/>
+    <n v="168"/>
+    <n v="132"/>
+    <n v="2910"/>
+    <n v="11.4"/>
+    <n v="80"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="23.7"/>
+    <x v="3"/>
+    <n v="70"/>
+    <n v="100"/>
+    <n v="2420"/>
+    <n v="12.5"/>
+    <n v="80"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="35"/>
+    <x v="1"/>
+    <n v="122"/>
+    <n v="88"/>
+    <n v="2500"/>
+    <n v="15.1"/>
+    <n v="80"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="23.6"/>
+    <x v="1"/>
+    <n v="140"/>
+    <m/>
+    <n v="2905"/>
+    <n v="14.3"/>
+    <n v="80"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="32.4"/>
+    <x v="1"/>
+    <n v="107"/>
+    <n v="72"/>
+    <n v="2290"/>
+    <n v="17"/>
+    <n v="80"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="27.2"/>
+    <x v="1"/>
+    <n v="135"/>
+    <n v="84"/>
+    <n v="2490"/>
+    <n v="15.7"/>
+    <n v="81"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="26.6"/>
+    <x v="1"/>
+    <n v="151"/>
+    <n v="84"/>
+    <n v="2635"/>
+    <n v="16.399999999999999"/>
+    <n v="81"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="25.8"/>
+    <x v="1"/>
+    <n v="156"/>
+    <n v="92"/>
+    <n v="2620"/>
+    <n v="14.4"/>
+    <n v="81"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="23.5"/>
+    <x v="2"/>
+    <n v="173"/>
+    <n v="110"/>
+    <n v="2725"/>
+    <n v="12.6"/>
+    <n v="81"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="30"/>
+    <x v="1"/>
+    <n v="135"/>
+    <n v="84"/>
+    <n v="2385"/>
+    <n v="12.9"/>
+    <n v="81"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="39.1"/>
+    <x v="1"/>
+    <n v="79"/>
+    <n v="58"/>
+    <n v="1755"/>
+    <n v="16.899999999999999"/>
+    <n v="81"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="39"/>
+    <x v="1"/>
+    <n v="86"/>
+    <n v="64"/>
+    <n v="1875"/>
+    <n v="16.399999999999999"/>
+    <n v="81"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="35.1"/>
+    <x v="1"/>
+    <n v="81"/>
+    <n v="60"/>
+    <n v="1760"/>
+    <n v="16.100000000000001"/>
+    <n v="81"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="32.299999999999997"/>
+    <x v="1"/>
+    <n v="97"/>
+    <n v="67"/>
+    <n v="2065"/>
+    <n v="17.8"/>
+    <n v="81"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="37"/>
+    <x v="1"/>
+    <n v="85"/>
+    <n v="65"/>
+    <n v="1975"/>
+    <n v="19.399999999999999"/>
+    <n v="81"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="37.700000000000003"/>
+    <x v="1"/>
+    <n v="89"/>
+    <n v="62"/>
+    <n v="2050"/>
+    <n v="17.3"/>
+    <n v="81"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="34.1"/>
+    <x v="1"/>
+    <n v="91"/>
+    <n v="68"/>
+    <n v="1985"/>
+    <n v="16"/>
+    <n v="81"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="34.700000000000003"/>
+    <x v="1"/>
+    <n v="105"/>
+    <n v="63"/>
+    <n v="2215"/>
+    <n v="14.9"/>
+    <n v="81"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="34.4"/>
+    <x v="1"/>
+    <n v="98"/>
+    <n v="65"/>
+    <n v="2045"/>
+    <n v="16.2"/>
+    <n v="81"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="29.9"/>
+    <x v="1"/>
+    <n v="98"/>
+    <n v="65"/>
+    <n v="2380"/>
+    <n v="20.7"/>
+    <n v="81"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="33"/>
+    <x v="1"/>
+    <n v="105"/>
+    <n v="74"/>
+    <n v="2190"/>
+    <n v="14.2"/>
+    <n v="81"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="34.5"/>
+    <x v="1"/>
+    <n v="100"/>
+    <m/>
+    <n v="2320"/>
+    <n v="15.8"/>
+    <n v="81"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="33.700000000000003"/>
+    <x v="1"/>
+    <n v="107"/>
+    <n v="75"/>
+    <n v="2210"/>
+    <n v="14.4"/>
+    <n v="81"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="32.4"/>
+    <x v="1"/>
+    <n v="108"/>
+    <n v="75"/>
+    <n v="2350"/>
+    <n v="16.8"/>
+    <n v="81"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="32.9"/>
+    <x v="1"/>
+    <n v="119"/>
+    <n v="100"/>
+    <n v="2615"/>
+    <n v="14.8"/>
+    <n v="81"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="31.6"/>
+    <x v="1"/>
+    <n v="120"/>
+    <n v="74"/>
+    <n v="2635"/>
+    <n v="18.3"/>
+    <n v="81"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="28.1"/>
+    <x v="1"/>
+    <n v="141"/>
+    <n v="80"/>
+    <n v="3230"/>
+    <n v="20.399999999999999"/>
+    <n v="81"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="30.7"/>
+    <x v="2"/>
+    <n v="145"/>
+    <n v="76"/>
+    <n v="3160"/>
+    <n v="19.600000000000001"/>
+    <n v="81"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="25.4"/>
+    <x v="2"/>
+    <n v="168"/>
+    <n v="116"/>
+    <n v="2900"/>
+    <n v="12.6"/>
+    <n v="81"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="24.2"/>
+    <x v="2"/>
+    <n v="146"/>
+    <n v="120"/>
+    <n v="2930"/>
+    <n v="13.8"/>
+    <n v="81"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="22.4"/>
+    <x v="2"/>
+    <n v="231"/>
+    <n v="110"/>
+    <n v="3415"/>
+    <n v="15.8"/>
+    <n v="81"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="26.6"/>
+    <x v="0"/>
+    <n v="350"/>
+    <n v="105"/>
+    <n v="3725"/>
+    <n v="19"/>
+    <n v="81"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="20.2"/>
+    <x v="2"/>
+    <n v="200"/>
+    <n v="88"/>
+    <n v="3060"/>
+    <n v="17.100000000000001"/>
+    <n v="81"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="17.600000000000001"/>
+    <x v="2"/>
+    <n v="225"/>
+    <n v="85"/>
+    <n v="3465"/>
+    <n v="16.600000000000001"/>
+    <n v="81"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="28"/>
+    <x v="1"/>
+    <n v="112"/>
+    <n v="88"/>
+    <n v="2605"/>
+    <n v="19.600000000000001"/>
+    <n v="82"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="27"/>
+    <x v="1"/>
+    <n v="112"/>
+    <n v="88"/>
+    <n v="2640"/>
+    <n v="18.600000000000001"/>
+    <n v="82"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="34"/>
+    <x v="1"/>
+    <n v="112"/>
+    <n v="88"/>
+    <n v="2395"/>
+    <n v="18"/>
+    <n v="82"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="31"/>
+    <x v="1"/>
+    <n v="112"/>
+    <n v="85"/>
+    <n v="2575"/>
+    <n v="16.2"/>
+    <n v="82"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="29"/>
+    <x v="1"/>
+    <n v="135"/>
+    <n v="84"/>
+    <n v="2525"/>
+    <n v="16"/>
+    <n v="82"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="27"/>
+    <x v="1"/>
+    <n v="151"/>
+    <n v="90"/>
+    <n v="2735"/>
+    <n v="18"/>
+    <n v="82"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="24"/>
+    <x v="1"/>
+    <n v="140"/>
+    <n v="92"/>
+    <n v="2865"/>
+    <n v="16.399999999999999"/>
+    <n v="82"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="23"/>
+    <x v="1"/>
+    <n v="151"/>
+    <m/>
+    <n v="3035"/>
+    <n v="20.5"/>
+    <n v="82"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="36"/>
+    <x v="1"/>
+    <n v="105"/>
+    <n v="74"/>
+    <n v="1980"/>
+    <n v="15.3"/>
+    <n v="82"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="37"/>
+    <x v="1"/>
+    <n v="91"/>
+    <n v="68"/>
+    <n v="2025"/>
+    <n v="18.2"/>
+    <n v="82"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="31"/>
+    <x v="1"/>
+    <n v="91"/>
+    <n v="68"/>
+    <n v="1970"/>
+    <n v="17.600000000000001"/>
+    <n v="82"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="38"/>
+    <x v="1"/>
+    <n v="105"/>
+    <n v="63"/>
+    <n v="2125"/>
+    <n v="14.7"/>
+    <n v="82"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="36"/>
+    <x v="1"/>
+    <n v="98"/>
+    <n v="70"/>
+    <n v="2125"/>
+    <n v="17.3"/>
+    <n v="82"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="36"/>
+    <x v="1"/>
+    <n v="120"/>
+    <n v="88"/>
+    <n v="2160"/>
+    <n v="14.5"/>
+    <n v="82"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="36"/>
+    <x v="1"/>
+    <n v="107"/>
+    <n v="75"/>
+    <n v="2205"/>
+    <n v="14.5"/>
+    <n v="82"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="34"/>
+    <x v="1"/>
+    <n v="108"/>
+    <n v="70"/>
+    <n v="2245"/>
+    <n v="16.899999999999999"/>
+    <n v="82"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="38"/>
+    <x v="1"/>
+    <n v="91"/>
+    <n v="67"/>
+    <n v="1965"/>
+    <n v="15"/>
+    <n v="82"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="32"/>
+    <x v="1"/>
+    <n v="91"/>
+    <n v="67"/>
+    <n v="1965"/>
+    <n v="15.7"/>
+    <n v="82"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="38"/>
+    <x v="1"/>
+    <n v="91"/>
+    <n v="67"/>
+    <n v="1995"/>
+    <n v="16.2"/>
+    <n v="82"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="25"/>
+    <x v="2"/>
+    <n v="181"/>
+    <n v="110"/>
+    <n v="2945"/>
+    <n v="16.399999999999999"/>
+    <n v="82"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="38"/>
+    <x v="2"/>
+    <n v="262"/>
+    <n v="85"/>
+    <n v="3015"/>
+    <n v="17"/>
+    <n v="82"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="26"/>
+    <x v="1"/>
+    <n v="156"/>
+    <n v="92"/>
+    <n v="2585"/>
+    <n v="14.5"/>
+    <n v="82"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="22"/>
+    <x v="2"/>
+    <n v="232"/>
+    <n v="112"/>
+    <n v="2835"/>
+    <n v="14.7"/>
+    <n v="82"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="32"/>
+    <x v="1"/>
+    <n v="144"/>
+    <n v="96"/>
+    <n v="2665"/>
+    <n v="13.9"/>
+    <n v="82"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="36"/>
+    <x v="1"/>
+    <n v="135"/>
+    <n v="84"/>
+    <n v="2370"/>
+    <n v="13"/>
+    <n v="82"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="27"/>
+    <x v="1"/>
+    <n v="151"/>
+    <n v="90"/>
+    <n v="2950"/>
+    <n v="17.3"/>
+    <n v="82"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="27"/>
+    <x v="1"/>
+    <n v="140"/>
+    <n v="86"/>
+    <n v="2790"/>
+    <n v="15.6"/>
+    <n v="82"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="44"/>
+    <x v="1"/>
+    <n v="97"/>
+    <n v="52"/>
+    <n v="2130"/>
+    <n v="24.6"/>
+    <n v="82"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="32"/>
+    <x v="1"/>
+    <n v="135"/>
+    <n v="84"/>
+    <n v="2295"/>
+    <n v="11.6"/>
+    <n v="82"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="28"/>
+    <x v="1"/>
+    <n v="120"/>
+    <n v="79"/>
+    <n v="2625"/>
+    <n v="18.600000000000001"/>
+    <n v="82"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="31"/>
+    <x v="1"/>
+    <n v="119"/>
+    <n v="82"/>
+    <n v="2720"/>
+    <n v="19.399999999999999"/>
+    <n v="82"/>
+    <x v="0"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2CA56744-BC5C-4563-BA85-16B1E7D5E069}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A2:C17" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="8">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="6">
+        <item x="3"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="1"/>
+    <field x="7"/>
+  </rowFields>
+  <rowItems count="15">
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Average of weight" fld="4" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="Average of mpg" fld="0" subtotal="average" baseField="1" baseItem="4"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -912,10 +5086,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H399"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -11280,4 +15454,201 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A3A72D-BFA5-4201-92A7-C700B3D00039}">
+  <dimension ref="A2:C17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.65"/>
+  <cols>
+    <col min="1" max="1" width="11.31640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.04296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A3" s="2">
+        <v>8</v>
+      </c>
+      <c r="B3" s="4">
+        <v>4114.7184466019417</v>
+      </c>
+      <c r="C3" s="4">
+        <v>14.963106796116508</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4">
+        <v>4114.7184466019417</v>
+      </c>
+      <c r="C4" s="4">
+        <v>14.963106796116508</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A5" s="2">
+        <v>6</v>
+      </c>
+      <c r="B5" s="4">
+        <v>3198.2261904761904</v>
+      </c>
+      <c r="C5" s="4">
+        <v>19.985714285714284</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="4">
+        <v>3382.5</v>
+      </c>
+      <c r="C6" s="4">
+        <v>20.100000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="4">
+        <v>2882</v>
+      </c>
+      <c r="C7" s="4">
+        <v>23.883333333333329</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="4">
+        <v>3213.9054054054054</v>
+      </c>
+      <c r="C8" s="4">
+        <v>19.663513513513511</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A9" s="2">
+        <v>5</v>
+      </c>
+      <c r="B9" s="4">
+        <v>3103.3333333333335</v>
+      </c>
+      <c r="C9" s="4">
+        <v>27.366666666666664</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="4">
+        <v>3103.3333333333335</v>
+      </c>
+      <c r="C10" s="4">
+        <v>27.366666666666664</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A11" s="2">
+        <v>3</v>
+      </c>
+      <c r="B11" s="4">
+        <v>2398.5</v>
+      </c>
+      <c r="C11" s="4">
+        <v>20.55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="4">
+        <v>2398.5</v>
+      </c>
+      <c r="C12" s="4">
+        <v>20.55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A13" s="2">
+        <v>4</v>
+      </c>
+      <c r="B13" s="4">
+        <v>2308.127450980392</v>
+      </c>
+      <c r="C13" s="4">
+        <v>29.286764705882348</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="4">
+        <v>2330.0158730158732</v>
+      </c>
+      <c r="C14" s="4">
+        <v>28.411111111111108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="4">
+        <v>2153.4927536231885</v>
+      </c>
+      <c r="C15" s="4">
+        <v>31.595652173913034</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="4">
+        <v>2437.1666666666665</v>
+      </c>
+      <c r="C16" s="4">
+        <v>27.840277777777782</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="4">
+        <v>2970.424623115578</v>
+      </c>
+      <c r="C17" s="4">
+        <v>23.514572864321611</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>